--- a/biology/Médecine/Julian_Talko-Hryncewicz/Julian_Talko-Hryncewicz.xlsx
+++ b/biology/Médecine/Julian_Talko-Hryncewicz/Julian_Talko-Hryncewicz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julian Talko-Hryncewicz ou Julijonas Talko-Grincevičius, né le 12 août 1850 à Rukszany (Rukszanach) près de Kowno en Lituanie et mort le 26 avril 1936 à Cracovie, est un médecin et anthropologue polonais.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études de médecine à l'université de Kiev où il obtient son diplôme en 1876[1]. Médecin à Zvenyhorodka en Ukraine, il part pour la Sibérie où il obtient le poste de médecin régional à Kiakhta. Il séjourne en Asie de 1892 à 1908 puis revient en Pologne où il devient professeur d'anthropologie à l'université Jagellon de Cracovie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études de médecine à l'université de Kiev où il obtient son diplôme en 1876. Médecin à Zvenyhorodka en Ukraine, il part pour la Sibérie où il obtient le poste de médecin régional à Kiakhta. Il séjourne en Asie de 1892 à 1908 puis revient en Pologne où il devient professeur d'anthropologie à l'université Jagellon de Cracovie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai sur la médecine populaire en Russie méridionale (1893).
 Descriptions des caractéristiques physiques des anciens slaves de l'Est (1910).
